--- a/piece-service/src/main/resources/data/problem.xlsx
+++ b/piece-service/src/main/resources/data/problem.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="94">
   <si>
     <t>문제id</t>
   </si>
@@ -338,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -351,6 +351,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -11975,7 +11981,7 @@
       <c r="A301" s="3">
         <v>1526.0</v>
       </c>
-      <c r="B301" s="2" t="s">
+      <c r="B301" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C301" s="3">
@@ -12047,6 +12053,771 @@
       <c r="Y302" s="2"/>
       <c r="Z302" s="2"/>
     </row>
+    <row r="303">
+      <c r="A303" s="7">
+        <v>1532.0</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C303" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F303" s="2"/>
+      <c r="G303" s="2"/>
+      <c r="H303" s="2"/>
+      <c r="I303" s="2"/>
+      <c r="J303" s="2"/>
+      <c r="K303" s="2"/>
+      <c r="L303" s="2"/>
+      <c r="M303" s="2"/>
+      <c r="N303" s="2"/>
+      <c r="O303" s="2"/>
+      <c r="P303" s="2"/>
+      <c r="Q303" s="2"/>
+      <c r="R303" s="2"/>
+      <c r="S303" s="2"/>
+      <c r="T303" s="2"/>
+      <c r="U303" s="2"/>
+      <c r="V303" s="2"/>
+      <c r="W303" s="2"/>
+      <c r="X303" s="2"/>
+      <c r="Y303" s="2"/>
+      <c r="Z303" s="2"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="3">
+        <v>1533.0</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C304" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F304" s="2"/>
+      <c r="G304" s="2"/>
+      <c r="H304" s="2"/>
+      <c r="I304" s="2"/>
+      <c r="J304" s="2"/>
+      <c r="K304" s="2"/>
+      <c r="L304" s="2"/>
+      <c r="M304" s="2"/>
+      <c r="N304" s="2"/>
+      <c r="O304" s="2"/>
+      <c r="P304" s="2"/>
+      <c r="Q304" s="2"/>
+      <c r="R304" s="2"/>
+      <c r="S304" s="2"/>
+      <c r="T304" s="2"/>
+      <c r="U304" s="2"/>
+      <c r="V304" s="2"/>
+      <c r="W304" s="2"/>
+      <c r="X304" s="2"/>
+      <c r="Y304" s="2"/>
+      <c r="Z304" s="2"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="7">
+        <v>1534.0</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C305" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F305" s="2"/>
+      <c r="G305" s="2"/>
+      <c r="H305" s="2"/>
+      <c r="I305" s="2"/>
+      <c r="J305" s="2"/>
+      <c r="K305" s="2"/>
+      <c r="L305" s="2"/>
+      <c r="M305" s="2"/>
+      <c r="N305" s="2"/>
+      <c r="O305" s="2"/>
+      <c r="P305" s="2"/>
+      <c r="Q305" s="2"/>
+      <c r="R305" s="2"/>
+      <c r="S305" s="2"/>
+      <c r="T305" s="2"/>
+      <c r="U305" s="2"/>
+      <c r="V305" s="2"/>
+      <c r="W305" s="2"/>
+      <c r="X305" s="2"/>
+      <c r="Y305" s="2"/>
+      <c r="Z305" s="2"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="3">
+        <v>1535.0</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C306" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F306" s="2"/>
+      <c r="G306" s="2"/>
+      <c r="H306" s="2"/>
+      <c r="I306" s="2"/>
+      <c r="J306" s="2"/>
+      <c r="K306" s="2"/>
+      <c r="L306" s="2"/>
+      <c r="M306" s="2"/>
+      <c r="N306" s="2"/>
+      <c r="O306" s="2"/>
+      <c r="P306" s="2"/>
+      <c r="Q306" s="2"/>
+      <c r="R306" s="2"/>
+      <c r="S306" s="2"/>
+      <c r="T306" s="2"/>
+      <c r="U306" s="2"/>
+      <c r="V306" s="2"/>
+      <c r="W306" s="2"/>
+      <c r="X306" s="2"/>
+      <c r="Y306" s="2"/>
+      <c r="Z306" s="2"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="7">
+        <v>1536.0</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C307" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F307" s="2"/>
+      <c r="G307" s="2"/>
+      <c r="H307" s="2"/>
+      <c r="I307" s="2"/>
+      <c r="J307" s="2"/>
+      <c r="K307" s="2"/>
+      <c r="L307" s="2"/>
+      <c r="M307" s="2"/>
+      <c r="N307" s="2"/>
+      <c r="O307" s="2"/>
+      <c r="P307" s="2"/>
+      <c r="Q307" s="2"/>
+      <c r="R307" s="2"/>
+      <c r="S307" s="2"/>
+      <c r="T307" s="2"/>
+      <c r="U307" s="2"/>
+      <c r="V307" s="2"/>
+      <c r="W307" s="2"/>
+      <c r="X307" s="2"/>
+      <c r="Y307" s="2"/>
+      <c r="Z307" s="2"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="3">
+        <v>1537.0</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C308" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F308" s="2"/>
+      <c r="G308" s="2"/>
+      <c r="H308" s="2"/>
+      <c r="I308" s="2"/>
+      <c r="J308" s="2"/>
+      <c r="K308" s="2"/>
+      <c r="L308" s="2"/>
+      <c r="M308" s="2"/>
+      <c r="N308" s="2"/>
+      <c r="O308" s="2"/>
+      <c r="P308" s="2"/>
+      <c r="Q308" s="2"/>
+      <c r="R308" s="2"/>
+      <c r="S308" s="2"/>
+      <c r="T308" s="2"/>
+      <c r="U308" s="2"/>
+      <c r="V308" s="2"/>
+      <c r="W308" s="2"/>
+      <c r="X308" s="2"/>
+      <c r="Y308" s="2"/>
+      <c r="Z308" s="2"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="7">
+        <v>1538.0</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C309" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F309" s="2"/>
+      <c r="G309" s="2"/>
+      <c r="H309" s="2"/>
+      <c r="I309" s="2"/>
+      <c r="J309" s="2"/>
+      <c r="K309" s="2"/>
+      <c r="L309" s="2"/>
+      <c r="M309" s="2"/>
+      <c r="N309" s="2"/>
+      <c r="O309" s="2"/>
+      <c r="P309" s="2"/>
+      <c r="Q309" s="2"/>
+      <c r="R309" s="2"/>
+      <c r="S309" s="2"/>
+      <c r="T309" s="2"/>
+      <c r="U309" s="2"/>
+      <c r="V309" s="2"/>
+      <c r="W309" s="2"/>
+      <c r="X309" s="2"/>
+      <c r="Y309" s="2"/>
+      <c r="Z309" s="2"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="3">
+        <v>1539.0</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C310" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F310" s="2"/>
+      <c r="G310" s="2"/>
+      <c r="H310" s="2"/>
+      <c r="I310" s="2"/>
+      <c r="J310" s="2"/>
+      <c r="K310" s="2"/>
+      <c r="L310" s="2"/>
+      <c r="M310" s="2"/>
+      <c r="N310" s="2"/>
+      <c r="O310" s="2"/>
+      <c r="P310" s="2"/>
+      <c r="Q310" s="2"/>
+      <c r="R310" s="2"/>
+      <c r="S310" s="2"/>
+      <c r="T310" s="2"/>
+      <c r="U310" s="2"/>
+      <c r="V310" s="2"/>
+      <c r="W310" s="2"/>
+      <c r="X310" s="2"/>
+      <c r="Y310" s="2"/>
+      <c r="Z310" s="2"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="7">
+        <v>1540.0</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C311" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F311" s="2"/>
+      <c r="G311" s="2"/>
+      <c r="H311" s="2"/>
+      <c r="I311" s="2"/>
+      <c r="J311" s="2"/>
+      <c r="K311" s="2"/>
+      <c r="L311" s="2"/>
+      <c r="M311" s="2"/>
+      <c r="N311" s="2"/>
+      <c r="O311" s="2"/>
+      <c r="P311" s="2"/>
+      <c r="Q311" s="2"/>
+      <c r="R311" s="2"/>
+      <c r="S311" s="2"/>
+      <c r="T311" s="2"/>
+      <c r="U311" s="2"/>
+      <c r="V311" s="2"/>
+      <c r="W311" s="2"/>
+      <c r="X311" s="2"/>
+      <c r="Y311" s="2"/>
+      <c r="Z311" s="2"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="3">
+        <v>1541.0</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C312" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F312" s="2"/>
+      <c r="G312" s="2"/>
+      <c r="H312" s="2"/>
+      <c r="I312" s="2"/>
+      <c r="J312" s="2"/>
+      <c r="K312" s="2"/>
+      <c r="L312" s="2"/>
+      <c r="M312" s="2"/>
+      <c r="N312" s="2"/>
+      <c r="O312" s="2"/>
+      <c r="P312" s="2"/>
+      <c r="Q312" s="2"/>
+      <c r="R312" s="2"/>
+      <c r="S312" s="2"/>
+      <c r="T312" s="2"/>
+      <c r="U312" s="2"/>
+      <c r="V312" s="2"/>
+      <c r="W312" s="2"/>
+      <c r="X312" s="2"/>
+      <c r="Y312" s="2"/>
+      <c r="Z312" s="2"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="7">
+        <v>1542.0</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C313" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F313" s="2"/>
+      <c r="G313" s="2"/>
+      <c r="H313" s="2"/>
+      <c r="I313" s="2"/>
+      <c r="J313" s="2"/>
+      <c r="K313" s="2"/>
+      <c r="L313" s="2"/>
+      <c r="M313" s="2"/>
+      <c r="N313" s="2"/>
+      <c r="O313" s="2"/>
+      <c r="P313" s="2"/>
+      <c r="Q313" s="2"/>
+      <c r="R313" s="2"/>
+      <c r="S313" s="2"/>
+      <c r="T313" s="2"/>
+      <c r="U313" s="2"/>
+      <c r="V313" s="2"/>
+      <c r="W313" s="2"/>
+      <c r="X313" s="2"/>
+      <c r="Y313" s="2"/>
+      <c r="Z313" s="2"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="3">
+        <v>1543.0</v>
+      </c>
+      <c r="B314" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C314" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F314" s="2"/>
+      <c r="G314" s="2"/>
+      <c r="H314" s="2"/>
+      <c r="I314" s="2"/>
+      <c r="J314" s="2"/>
+      <c r="K314" s="2"/>
+      <c r="L314" s="2"/>
+      <c r="M314" s="2"/>
+      <c r="N314" s="2"/>
+      <c r="O314" s="2"/>
+      <c r="P314" s="2"/>
+      <c r="Q314" s="2"/>
+      <c r="R314" s="2"/>
+      <c r="S314" s="2"/>
+      <c r="T314" s="2"/>
+      <c r="U314" s="2"/>
+      <c r="V314" s="2"/>
+      <c r="W314" s="2"/>
+      <c r="X314" s="2"/>
+      <c r="Y314" s="2"/>
+      <c r="Z314" s="2"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="7">
+        <v>1544.0</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C315" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D315" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F315" s="2"/>
+      <c r="G315" s="2"/>
+      <c r="H315" s="2"/>
+      <c r="I315" s="2"/>
+      <c r="J315" s="2"/>
+      <c r="K315" s="2"/>
+      <c r="L315" s="2"/>
+      <c r="M315" s="2"/>
+      <c r="N315" s="2"/>
+      <c r="O315" s="2"/>
+      <c r="P315" s="2"/>
+      <c r="Q315" s="2"/>
+      <c r="R315" s="2"/>
+      <c r="S315" s="2"/>
+      <c r="T315" s="2"/>
+      <c r="U315" s="2"/>
+      <c r="V315" s="2"/>
+      <c r="W315" s="2"/>
+      <c r="X315" s="2"/>
+      <c r="Y315" s="2"/>
+      <c r="Z315" s="2"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="3">
+        <v>1545.0</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C316" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F316" s="2"/>
+      <c r="G316" s="2"/>
+      <c r="H316" s="2"/>
+      <c r="I316" s="2"/>
+      <c r="J316" s="2"/>
+      <c r="K316" s="2"/>
+      <c r="L316" s="2"/>
+      <c r="M316" s="2"/>
+      <c r="N316" s="2"/>
+      <c r="O316" s="2"/>
+      <c r="P316" s="2"/>
+      <c r="Q316" s="2"/>
+      <c r="R316" s="2"/>
+      <c r="S316" s="2"/>
+      <c r="T316" s="2"/>
+      <c r="U316" s="2"/>
+      <c r="V316" s="2"/>
+      <c r="W316" s="2"/>
+      <c r="X316" s="2"/>
+      <c r="Y316" s="2"/>
+      <c r="Z316" s="2"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="7">
+        <v>1546.0</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C317" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F317" s="2"/>
+      <c r="G317" s="2"/>
+      <c r="H317" s="2"/>
+      <c r="I317" s="2"/>
+      <c r="J317" s="2"/>
+      <c r="K317" s="2"/>
+      <c r="L317" s="2"/>
+      <c r="M317" s="2"/>
+      <c r="N317" s="2"/>
+      <c r="O317" s="2"/>
+      <c r="P317" s="2"/>
+      <c r="Q317" s="2"/>
+      <c r="R317" s="2"/>
+      <c r="S317" s="2"/>
+      <c r="T317" s="2"/>
+      <c r="U317" s="2"/>
+      <c r="V317" s="2"/>
+      <c r="W317" s="2"/>
+      <c r="X317" s="2"/>
+      <c r="Y317" s="2"/>
+      <c r="Z317" s="2"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="3">
+        <v>1547.0</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C318" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F318" s="2"/>
+      <c r="G318" s="2"/>
+      <c r="H318" s="2"/>
+      <c r="I318" s="2"/>
+      <c r="J318" s="2"/>
+      <c r="K318" s="2"/>
+      <c r="L318" s="2"/>
+      <c r="M318" s="2"/>
+      <c r="N318" s="2"/>
+      <c r="O318" s="2"/>
+      <c r="P318" s="2"/>
+      <c r="Q318" s="2"/>
+      <c r="R318" s="2"/>
+      <c r="S318" s="2"/>
+      <c r="T318" s="2"/>
+      <c r="U318" s="2"/>
+      <c r="V318" s="2"/>
+      <c r="W318" s="2"/>
+      <c r="X318" s="2"/>
+      <c r="Y318" s="2"/>
+      <c r="Z318" s="2"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="7">
+        <v>1548.0</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C319" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F319" s="2"/>
+      <c r="G319" s="2"/>
+      <c r="H319" s="2"/>
+      <c r="I319" s="2"/>
+      <c r="J319" s="2"/>
+      <c r="K319" s="2"/>
+      <c r="L319" s="2"/>
+      <c r="M319" s="2"/>
+      <c r="N319" s="2"/>
+      <c r="O319" s="2"/>
+      <c r="P319" s="2"/>
+      <c r="Q319" s="2"/>
+      <c r="R319" s="2"/>
+      <c r="S319" s="2"/>
+      <c r="T319" s="2"/>
+      <c r="U319" s="2"/>
+      <c r="V319" s="2"/>
+      <c r="W319" s="2"/>
+      <c r="X319" s="2"/>
+      <c r="Y319" s="2"/>
+      <c r="Z319" s="2"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="3">
+        <v>1549.0</v>
+      </c>
+      <c r="B320" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C320" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="7">
+        <v>1550.0</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C321" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="3">
+        <v>1551.0</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C322" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="7">
+        <v>1552.0</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C323" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="3">
+        <v>1553.0</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C324" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="7">
+        <v>1554.0</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C325" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="3">
+        <v>1555.0</v>
+      </c>
+      <c r="B326" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C326" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
